--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H2">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>1.626332570041667</v>
+        <v>2.653124711426444</v>
       </c>
       <c r="R2">
-        <v>14.636993130375</v>
+        <v>23.878122402838</v>
       </c>
       <c r="S2">
-        <v>0.05010226003539523</v>
+        <v>0.07241686373836449</v>
       </c>
       <c r="T2">
-        <v>0.05010226003539522</v>
+        <v>0.07241686373836448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H3">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
-        <v>3.779266823013889</v>
+        <v>4.526037565157888</v>
       </c>
       <c r="R3">
-        <v>34.013401407125</v>
+        <v>40.73433808642099</v>
       </c>
       <c r="S3">
-        <v>0.116427483897056</v>
+        <v>0.1235378963601518</v>
       </c>
       <c r="T3">
-        <v>0.116427483897056</v>
+        <v>0.1235378963601518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H4">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>2.551242420222222</v>
+        <v>2.246759393337666</v>
       </c>
       <c r="R4">
-        <v>22.961181782</v>
+        <v>20.220834540039</v>
       </c>
       <c r="S4">
-        <v>0.07859586255966702</v>
+        <v>0.06132514922479742</v>
       </c>
       <c r="T4">
-        <v>0.07859586255966701</v>
+        <v>0.0613251492247974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H5">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>2.5808074565</v>
+        <v>1.530625784465333</v>
       </c>
       <c r="R5">
-        <v>23.2272671085</v>
+        <v>13.775632060188</v>
       </c>
       <c r="S5">
-        <v>0.07950666958821172</v>
+        <v>0.04177832967695621</v>
       </c>
       <c r="T5">
-        <v>0.0795066695882117</v>
+        <v>0.0417783296769562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H6">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>1.203830299291667</v>
+        <v>1.489303865860889</v>
       </c>
       <c r="R6">
-        <v>10.834472693625</v>
+        <v>13.403734792748</v>
       </c>
       <c r="S6">
-        <v>0.03708627608192923</v>
+        <v>0.04065045063828977</v>
       </c>
       <c r="T6">
-        <v>0.03708627608192922</v>
+        <v>0.04065045063828975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H7">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I7">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J7">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>3.328506562111111</v>
+        <v>3.008752957878666</v>
       </c>
       <c r="R7">
-        <v>29.956559059</v>
+        <v>27.078776620908</v>
       </c>
       <c r="S7">
-        <v>0.1025409589504426</v>
+        <v>0.08212371323319952</v>
       </c>
       <c r="T7">
-        <v>0.1025409589504426</v>
+        <v>0.08212371323319949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H8">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N8">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q8">
-        <v>0.438886471925</v>
+        <v>0.2164587499897778</v>
       </c>
       <c r="R8">
-        <v>3.949978247325</v>
+        <v>1.948128749908</v>
       </c>
       <c r="S8">
-        <v>0.01352073035211991</v>
+        <v>0.005908227282146374</v>
       </c>
       <c r="T8">
-        <v>0.01352073035211991</v>
+        <v>0.005908227282146374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H9">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N9">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q9">
-        <v>1.019883087241667</v>
+        <v>0.3692628656095555</v>
       </c>
       <c r="R9">
-        <v>9.178947785175001</v>
+        <v>3.323365790486</v>
       </c>
       <c r="S9">
-        <v>0.03141943325981261</v>
+        <v>0.01007900552405923</v>
       </c>
       <c r="T9">
-        <v>0.03141943325981262</v>
+        <v>0.01007900552405923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H10">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N10">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q10">
-        <v>0.6884851262666667</v>
+        <v>0.1833048886526667</v>
       </c>
       <c r="R10">
-        <v>6.196366136400001</v>
+        <v>1.649743997874</v>
       </c>
       <c r="S10">
-        <v>0.02121009039733534</v>
+        <v>0.005003294827026551</v>
       </c>
       <c r="T10">
-        <v>0.02121009039733534</v>
+        <v>0.00500329482702655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H11">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N11">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q11">
-        <v>0.6964636263</v>
+        <v>0.1248781644453333</v>
       </c>
       <c r="R11">
-        <v>6.2681726367</v>
+        <v>1.123903480008</v>
       </c>
       <c r="S11">
-        <v>0.02145588322638274</v>
+        <v>0.003408541249337911</v>
       </c>
       <c r="T11">
-        <v>0.02145588322638274</v>
+        <v>0.003408541249337911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H12">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I12">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J12">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N12">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q12">
-        <v>0.324868875275</v>
+        <v>0.1215068601075555</v>
       </c>
       <c r="R12">
-        <v>2.923819877475</v>
+        <v>1.093561740968</v>
       </c>
       <c r="S12">
-        <v>0.01000820199156279</v>
+        <v>0.003316521720139772</v>
       </c>
       <c r="T12">
-        <v>0.01000820199156279</v>
+        <v>0.003316521720139771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H13">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I13">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J13">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N13">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q13">
-        <v>0.8982397135333333</v>
+        <v>0.2454731590586667</v>
       </c>
       <c r="R13">
-        <v>8.084157421800001</v>
+        <v>2.209258431528</v>
       </c>
       <c r="S13">
-        <v>0.02767197837058197</v>
+        <v>0.006700173661048868</v>
       </c>
       <c r="T13">
-        <v>0.02767197837058197</v>
+        <v>0.006700173661048866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H14">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I14">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J14">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N14">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O14">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P14">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q14">
-        <v>1.437848813646667</v>
+        <v>1.897320845752444</v>
       </c>
       <c r="R14">
-        <v>12.94063932282</v>
+        <v>17.075887611772</v>
       </c>
       <c r="S14">
-        <v>0.04429566035873227</v>
+        <v>0.05178724715165825</v>
       </c>
       <c r="T14">
-        <v>0.04429566035873227</v>
+        <v>0.05178724715165825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H15">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I15">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J15">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N15">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O15">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P15">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q15">
-        <v>3.341268826575555</v>
+        <v>3.236691205674889</v>
       </c>
       <c r="R15">
-        <v>30.07141943918</v>
+        <v>29.130220851074</v>
       </c>
       <c r="S15">
-        <v>0.1029341247177749</v>
+        <v>0.08834527264966052</v>
       </c>
       <c r="T15">
-        <v>0.102934124717775</v>
+        <v>0.08834527264966051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H16">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I16">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J16">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N16">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O16">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P16">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q16">
-        <v>2.255566269048889</v>
+        <v>1.606718076240667</v>
       </c>
       <c r="R16">
-        <v>20.30009642144</v>
+        <v>14.460462686166</v>
       </c>
       <c r="S16">
-        <v>0.06948699781377334</v>
+        <v>0.04385526375446196</v>
       </c>
       <c r="T16">
-        <v>0.06948699781377335</v>
+        <v>0.04385526375446196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H17">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I17">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J17">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N17">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O17">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P17">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q17">
-        <v>2.28170486648</v>
+        <v>1.094591669741333</v>
       </c>
       <c r="R17">
-        <v>20.53534379832</v>
+        <v>9.851325027672001</v>
       </c>
       <c r="S17">
-        <v>0.07029224689356056</v>
+        <v>0.02987680731909108</v>
       </c>
       <c r="T17">
-        <v>0.07029224689356058</v>
+        <v>0.02987680731909108</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H18">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I18">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J18">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N18">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O18">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P18">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q18">
-        <v>1.064312428806667</v>
+        <v>1.065041254256889</v>
       </c>
       <c r="R18">
-        <v>9.57881185926</v>
+        <v>9.585371288311999</v>
       </c>
       <c r="S18">
-        <v>0.03278816341088742</v>
+        <v>0.02907023068048349</v>
       </c>
       <c r="T18">
-        <v>0.03278816341088742</v>
+        <v>0.02907023068048349</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H19">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I19">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J19">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N19">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O19">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P19">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q19">
-        <v>2.942749410364444</v>
+        <v>2.151640170594667</v>
       </c>
       <c r="R19">
-        <v>26.48474469328</v>
+        <v>19.364761535352</v>
       </c>
       <c r="S19">
-        <v>0.09065697809477428</v>
+        <v>0.05872887632340956</v>
       </c>
       <c r="T19">
-        <v>0.09065697809477431</v>
+        <v>0.05872887632340954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.356621</v>
+      </c>
+      <c r="I20">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J20">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.80871533333333</v>
+      </c>
+      <c r="N20">
+        <v>38.426146</v>
+      </c>
+      <c r="O20">
+        <v>0.1716721220213608</v>
+      </c>
+      <c r="P20">
+        <v>0.1716721220213608</v>
+      </c>
+      <c r="Q20">
+        <v>1.522618956962889</v>
+      </c>
+      <c r="R20">
+        <v>13.703570612666</v>
+      </c>
+      <c r="S20">
+        <v>0.04155978384919173</v>
+      </c>
+      <c r="T20">
+        <v>0.04155978384919173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.356621</v>
+      </c>
+      <c r="I21">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J21">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>21.85073566666667</v>
+      </c>
+      <c r="N21">
+        <v>65.552207</v>
+      </c>
+      <c r="O21">
+        <v>0.2928601395225403</v>
+      </c>
+      <c r="P21">
+        <v>0.2928601395225403</v>
+      </c>
+      <c r="Q21">
+        <v>2.597477068060777</v>
+      </c>
+      <c r="R21">
+        <v>23.377293612547</v>
+      </c>
+      <c r="S21">
+        <v>0.07089796498866872</v>
+      </c>
+      <c r="T21">
+        <v>0.07089796498866871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.356621</v>
+      </c>
+      <c r="I22">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J22">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.846871</v>
+      </c>
+      <c r="N22">
+        <v>32.540613</v>
+      </c>
+      <c r="O22">
+        <v>0.1453779956383313</v>
+      </c>
+      <c r="P22">
+        <v>0.1453779956383313</v>
+      </c>
+      <c r="Q22">
+        <v>1.289407327630333</v>
+      </c>
+      <c r="R22">
+        <v>11.604665948673</v>
+      </c>
+      <c r="S22">
+        <v>0.03519428783204536</v>
+      </c>
+      <c r="T22">
+        <v>0.03519428783204535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.356621</v>
+      </c>
+      <c r="I23">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J23">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.389532</v>
+      </c>
+      <c r="N23">
+        <v>22.168596</v>
+      </c>
+      <c r="O23">
+        <v>0.09904011496636306</v>
+      </c>
+      <c r="P23">
+        <v>0.09904011496636304</v>
+      </c>
+      <c r="Q23">
+        <v>0.8784207637906667</v>
+      </c>
+      <c r="R23">
+        <v>7.905786874116001</v>
+      </c>
+      <c r="S23">
+        <v>0.02397643672097786</v>
+      </c>
+      <c r="T23">
+        <v>0.02397643672097785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.356621</v>
+      </c>
+      <c r="I24">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J24">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.190038666666666</v>
+      </c>
+      <c r="N24">
+        <v>21.570116</v>
+      </c>
+      <c r="O24">
+        <v>0.09636635393950015</v>
+      </c>
+      <c r="P24">
+        <v>0.09636635393950013</v>
+      </c>
+      <c r="Q24">
+        <v>0.8547062597817777</v>
+      </c>
+      <c r="R24">
+        <v>7.692356338036</v>
+      </c>
+      <c r="S24">
+        <v>0.02332915090058712</v>
+      </c>
+      <c r="T24">
+        <v>0.02332915090058711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.356621</v>
+      </c>
+      <c r="I25">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J25">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.525612</v>
+      </c>
+      <c r="N25">
+        <v>43.576836</v>
+      </c>
+      <c r="O25">
+        <v>0.1946832739119044</v>
+      </c>
+      <c r="P25">
+        <v>0.1946832739119044</v>
+      </c>
+      <c r="Q25">
+        <v>1.726712759017333</v>
+      </c>
+      <c r="R25">
+        <v>15.540414831156</v>
+      </c>
+      <c r="S25">
+        <v>0.04713051069424649</v>
+      </c>
+      <c r="T25">
+        <v>0.04713051069424647</v>
       </c>
     </row>
   </sheetData>
